--- a/data/bundesweit/bl_id.xlsx
+++ b/data/bundesweit/bl_id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lochmannm\Documents\GitHub\Hessen_END_Healthiar\data\bundesweit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19829CAC-583D-465C-97D7-00CD3E25B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157EEC46-0CE0-4AC0-A95D-4E17F11F32A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19545" yWindow="5955" windowWidth="15975" windowHeight="8475" xr2:uid="{89A74525-6312-4C99-851C-AF5FF33DCA63}"/>
+    <workbookView xWindow="-28920" yWindow="-1980" windowWidth="29040" windowHeight="17520" xr2:uid="{89A74525-6312-4C99-851C-AF5FF33DCA63}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Schleswig-Holstein</t>
   </si>
@@ -87,10 +87,13 @@
     <t>Freistaat Thüringen</t>
   </si>
   <si>
-    <t>bl_id</t>
-  </si>
-  <si>
-    <t>bundesland</t>
+    <t>Bundesland_Code</t>
+  </si>
+  <si>
+    <t>Bundesland_Name</t>
+  </si>
+  <si>
+    <t>Bundesland_Nummer</t>
   </si>
 </sst>
 </file>
@@ -442,147 +445,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC802CED-C2B8-448F-A413-143573F3D2F8}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
